--- a/biology/Zoologie/Hydrophis_torquatus/Hydrophis_torquatus.xlsx
+++ b/biology/Zoologie/Hydrophis_torquatus/Hydrophis_torquatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hydrophis torquatus est une espèce de serpents de la famille des Elapidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hydrophis torquatus est une espèce de serpents de la famille des Elapidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce marine se rencontre dans la mer de Chine méridionale dans les eaux du Viêt Nam, du Cambodge, de la Thaïlande, de la Malaisie et de l'Indonésie[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce marine se rencontre dans la mer de Chine méridionale dans les eaux du Viêt Nam, du Cambodge, de la Thaïlande, de la Malaisie et de l'Indonésie. 
 Sa présence est incertaine dans les eaux chinoises.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (19 décembre 2012)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (19 décembre 2012) :
 Hydrophis torquatus aagaardi Smith, 1920
 Hydrophis torquatus diadema Günther, 1864
 Hydrophis torquatus torquatus Günther, 1864</t>
@@ -576,7 +592,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Günther, 1864 : The reptiles of British India, London, Taylor &amp; Francis, p. 1-452 (texte intégral).
 Smith, 1920 : On sea snakes from the coasts of the Malay peninsula, Siam and Cochin-China. Journal of the Federated Malay States Museums, Kuala Lumpur, vol. 10, no  1, p. 1-63 (texte intégral).</t>
